--- a/pdsci2/src/main/webapp/jsp/jsres/skillScore/importSchoolRollSkill.xlsx
+++ b/pdsci2/src/main/webapp/jsp/jsres/skillScore/importSchoolRollSkill.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500"/>
+    <workbookView windowWidth="27945" windowHeight="11655"/>
   </bookViews>
   <sheets>
-    <sheet name="理论成绩导入表" sheetId="1" r:id="rId1"/>
+    <sheet name="SkillScore" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">理论成绩导入表!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SkillScore!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1091,33 +1091,33 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="20.7777777777778" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.7777777777778" style="3" customWidth="1"/>
-    <col min="6" max="8" width="20.7777777777778" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.1296296296296" customWidth="1"/>
+    <col min="1" max="3" width="20.775" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.775" style="3" customWidth="1"/>
+    <col min="6" max="8" width="20.775" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.1333333333333" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="13.1296296296296" customWidth="1"/>
+    <col min="20" max="20" width="13.1333333333333" customWidth="1"/>
     <col min="21" max="22" width="16.75" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
-    <col min="24" max="24" width="13.1296296296296" customWidth="1"/>
+    <col min="24" max="24" width="13.1333333333333" customWidth="1"/>
     <col min="25" max="25" width="8" customWidth="1"/>
-    <col min="26" max="26" width="9.62962962962963" customWidth="1"/>
-    <col min="27" max="27" width="13.1296296296296" customWidth="1"/>
-    <col min="28" max="28" width="11.3796296296296" customWidth="1"/>
+    <col min="26" max="26" width="9.63333333333333" customWidth="1"/>
+    <col min="27" max="27" width="13.1333333333333" customWidth="1"/>
+    <col min="28" max="28" width="11.3833333333333" customWidth="1"/>
     <col min="29" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="20.3796296296296" customWidth="1"/>
-    <col min="34" max="34" width="9.62962962962963" customWidth="1"/>
+    <col min="31" max="31" width="20.3833333333333" customWidth="1"/>
+    <col min="34" max="34" width="9.63333333333333" customWidth="1"/>
     <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="11.3796296296296" customWidth="1"/>
-    <col min="37" max="37" width="13.1296296296296" customWidth="1"/>
+    <col min="36" max="36" width="11.3833333333333" customWidth="1"/>
+    <col min="37" max="37" width="13.1333333333333" customWidth="1"/>
     <col min="38" max="38" width="15" customWidth="1"/>
-    <col min="39" max="39" width="13.1296296296296" customWidth="1"/>
-    <col min="40" max="40" width="18.6296296296296" customWidth="1"/>
+    <col min="39" max="39" width="13.1333333333333" customWidth="1"/>
+    <col min="40" max="40" width="18.6333333333333" customWidth="1"/>
     <col min="41" max="42" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1158,14 +1158,14 @@
       <c r="H2" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H2">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:H2" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3:H1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"合格,不合格,缺考"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
